--- a/GINX_TimeTable18A.xlsx
+++ b/GINX_TimeTable18A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/300098957/Developer/CollegeBoreal/18A/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0F306374-85A6-1544-A6CB-EF64AAD00B59}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A681C4-51DE-CD4F-A754-0160E83156EB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5720" yWindow="840" windowWidth="31340" windowHeight="26340" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3840" yWindow="840" windowWidth="31340" windowHeight="26340" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GINF" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="56">
   <si>
     <t>`00</t>
   </si>
@@ -170,9 +170,6 @@
     <t>Brice Robert</t>
   </si>
   <si>
-    <t>Michael Ibghi</t>
-  </si>
-  <si>
     <t>Richard Engoulou</t>
   </si>
   <si>
@@ -182,22 +179,25 @@
     <t>Accepté</t>
   </si>
   <si>
-    <t>Thierry Leprince ?</t>
+    <t>Selom Kounestron</t>
   </si>
   <si>
-    <t>Jean-Marc Ngom ?</t>
+    <t>Jean-Marc Ngom</t>
   </si>
   <si>
-    <t>Selom Kounestron ?</t>
+    <t>Rachid Talih</t>
   </si>
   <si>
-    <t>Elie FotsingSighano ?</t>
+    <t>Rocky</t>
   </si>
   <si>
-    <t>Rachid Talih ?</t>
+    <t>Lucien Kaniki</t>
   </si>
   <si>
-    <t>Carolina Dos Santos Reis ?</t>
+    <t>Elie Fotsing Sighano</t>
+  </si>
+  <si>
+    <t>Ghasem Shiri</t>
   </si>
 </sst>
 </file>
@@ -276,9 +276,8 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Helvetica"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -472,7 +471,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -507,6 +506,18 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="17" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -516,19 +527,8 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="17" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
@@ -578,12 +578,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="2336800"/>
+    <xdr:ext cx="2870200" cy="1549400"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="ZoneTexte 1">
@@ -597,8 +597,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3962400" y="4991100"/>
-          <a:ext cx="2870200" cy="2336800"/>
+          <a:off x="1092200" y="4991100"/>
+          <a:ext cx="2870200" cy="1549400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -690,7 +690,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TO - 3241 </a:t>
+            <a:t>TO - 3214 </a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
@@ -736,7 +736,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>B. Robert</a:t>
+            <a:t>J. Ngom</a:t>
           </a:r>
           <a:endParaRPr lang="fr-FR" sz="1200"/>
         </a:p>
@@ -882,12 +882,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2870200</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="1625600"/>
+    <xdr:ext cx="2870200" cy="1727200"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="ZoneTexte 3">
@@ -901,8 +901,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3949700" y="7683500"/>
-          <a:ext cx="2870200" cy="1625600"/>
+          <a:off x="3962400" y="2476500"/>
+          <a:ext cx="2870200" cy="1727200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -978,7 +978,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TO - 3240 </a:t>
+            <a:t>TO - 3206 </a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1200"/>
@@ -995,6 +995,14 @@
             </a:rPr>
             <a:t>Mathématiques informatiques</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t>S. Kounestron</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="fr-FR" sz="1200"/>
         </a:p>
       </xdr:txBody>
@@ -1003,154 +1011,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2870200</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2870200" cy="1638300"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="ZoneTexte 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9715500" y="7670800"/>
-          <a:ext cx="2870200" cy="1638300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFD7D6"/>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>MAT1018 - 2</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TH1</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TO - 3242 </a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Mathématiques informatiques</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1549400"/>
@@ -1167,7 +1030,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1066800" y="5765800"/>
+          <a:off x="9740900" y="2857500"/>
           <a:ext cx="2870200" cy="1549400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1306,7 +1169,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>J. Ngom</a:t>
+            <a:t>L. Kaniki</a:t>
           </a:r>
           <a:endParaRPr lang="fr-FR" sz="1200"/>
         </a:p>
@@ -1485,7 +1348,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2870200</xdr:colOff>
+      <xdr:colOff>25400</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
@@ -1503,7 +1366,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6832600" y="7683500"/>
+          <a:off x="3987800" y="7683500"/>
           <a:ext cx="2870200" cy="2057400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1652,10 +1515,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2870200</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="2324100"/>
     <xdr:sp macro="" textlink="">
@@ -1671,7 +1534,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9715500" y="4978400"/>
+          <a:off x="9740900" y="6515100"/>
           <a:ext cx="2870200" cy="2324100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1820,10 +1683,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1549400"/>
     <xdr:sp macro="" textlink="">
@@ -1839,7 +1702,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1054100" y="4191000"/>
+          <a:off x="1092200" y="1892300"/>
           <a:ext cx="2870200" cy="1549400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1886,7 +1749,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>INF1035 - 2</a:t>
+            <a:t>INF1035 - 1</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100">
@@ -1978,7 +1841,310 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
+            <a:t>L. Kaniki</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2870200" cy="1574800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="ZoneTexte 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3569880E-BA29-604C-99AA-99AA163FD544}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3987800" y="4965700"/>
+          <a:ext cx="2870200" cy="1574800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFD7D6"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INF1040 - 2</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>LA1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO - 3214 </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Introduction à la réseautique</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>J. Ngom</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2870200" cy="1727200"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="ZoneTexte 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9325CA27-6955-C446-B643-5D854CADA289}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="1879600"/>
+          <a:ext cx="2870200" cy="1727200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFD7D6"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>MAT1018 - 2</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TH1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO - 3206 </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Mathématiques informatiques</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>S. Kounestron</a:t>
           </a:r>
           <a:endParaRPr lang="fr-FR" sz="1200"/>
         </a:p>
@@ -1993,9 +2159,9 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>16934</xdr:colOff>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1651000"/>
@@ -2012,7 +2178,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1016000" y="8153400"/>
+          <a:off x="9732434" y="1936750"/>
           <a:ext cx="2870200" cy="1651000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2109,7 +2275,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TO - 3214 </a:t>
+            <a:t>TO - 3215 </a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100">
@@ -2155,10 +2321,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2857500</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>10583</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>188383</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1663700"/>
     <xdr:sp macro="" textlink="">
@@ -2174,7 +2340,1158 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3937000" y="8115300"/>
+          <a:off x="3968750" y="9660466"/>
+          <a:ext cx="2870200" cy="1663700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INF1006 - 2</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TH1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO - 3215 </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Système de gestion de bases de données</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B. Robert</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12701</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>182033</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2870200" cy="1651000"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="ZoneTexte 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3970868" y="5992283"/>
+          <a:ext cx="2870200" cy="1651000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FCFF36"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INF1045 - 2</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TH1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO - 3202 </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Administration des serveurs</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B. Robert</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>10584</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>14816</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2870200" cy="2514600"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="ZoneTexte 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6847417" y="1951566"/>
+          <a:ext cx="2870200" cy="2514600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FCFF36"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INF1018 - 2</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TH1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO - 3240 </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Formation aux usagers</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>G. Shiri</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>21167</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2870200" cy="1651000"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="ZoneTexte 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1079500" y="7662334"/>
+          <a:ext cx="2870200" cy="1651000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FCFF36"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INF1045 - 2</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TH1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO - 3202 </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Administration des serveurs</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B. Robert</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>10583</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>10583</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2870200" cy="2514600"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="ZoneTexte 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6847416" y="6836833"/>
+          <a:ext cx="2870200" cy="2514600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FCFF36"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> INF1046 - 2</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TH1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO - 3241 </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Développement d'applications multimédia</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>R. </a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2117</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2870200" cy="1625600"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="ZoneTexte 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9717617" y="9675283"/>
+          <a:ext cx="2870200" cy="1625600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INF1006 - 2</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TH1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO - 3215 </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Système de gestion de bases de données</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B. Robert</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>10583</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>12701</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2870200" cy="1651000"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="ZoneTexte 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1090083" y="4394201"/>
+          <a:ext cx="2870200" cy="1651000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FCFF36"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INF1044 - 2</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>LA1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO - 3214 </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Logiciels de développement</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>R. Talih</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>33867</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2870200" cy="1663700"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="ZoneTexte 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12628034" y="1936750"/>
           <a:ext cx="2870200" cy="1663700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2221,7 +3538,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>INF1006 - 2</a:t>
+            <a:t>INF1023 - 2</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
@@ -2267,44 +3584,53 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TO - 3215 </a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Système de gestion de bases de données</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>H. Moussa</a:t>
+            <a:t>TO - 3158 </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Réseaux locaux et à distance</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>R. Engoulou</a:t>
           </a:r>
           <a:endParaRPr lang="fr-FR" sz="1200"/>
         </a:p>
@@ -2314,18 +3640,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2870200</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>2116</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="1651000"/>
+    <xdr:ext cx="2870200" cy="1663700"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="ZoneTexte 9">
+        <xdr:cNvPr id="19" name="ZoneTexte 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2333,7 +3659,175 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3949700" y="3187700"/>
+          <a:off x="9728200" y="5198533"/>
+          <a:ext cx="2870200" cy="1663700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FCFF36"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INF1023 - 2</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TH1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO - 3239 </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Réseaux locaux et à distance</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>R. Engoulou</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12699</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>10584</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2870200" cy="1651000"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="ZoneTexte 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3970866" y="3577167"/>
           <a:ext cx="2870200" cy="1651000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2371,30 +3865,30 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>INF1045 - 2</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INF1048 - 2</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2406,64 +3900,64 @@
             <a:t>TH1</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TO - 3215 </a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Administration des serveurs</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO - 3240 </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Programmation et scripts</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2482,18 +3976,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>10583</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>182034</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="2514600"/>
+    <xdr:ext cx="2870200" cy="1651000"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="ZoneTexte 11">
+        <xdr:cNvPr id="21" name="ZoneTexte 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2501,175 +3995,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1079500" y="5207000"/>
-          <a:ext cx="2870200" cy="2514600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FCFF36"/>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>INF1018 - 2</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TH1</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TO - 3215 </a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Formation aux usagers</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>M. Ibghi</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2870200" cy="1651000"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="ZoneTexte 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9728200" y="3200400"/>
+          <a:off x="12604750" y="5992284"/>
           <a:ext cx="2870200" cy="1651000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2707,30 +4033,30 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>INF1045 - 2</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INF1048 - 2</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2742,1188 +4068,27 @@
             <a:t>TH1</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TO - 3215 </a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Administration des serveurs</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>B. Robert</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2857500</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2870200" cy="2514600"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="ZoneTexte 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9702800" y="5245100"/>
-          <a:ext cx="2870200" cy="2514600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FCFF36"/>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> INF1046 - 2</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TH1</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TO - 3214 </a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Développement d'applications multimédia</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>C. Dos Santos Reis</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2870200</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2870200" cy="1625600"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="ZoneTexte 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9715500" y="8166100"/>
-          <a:ext cx="2870200" cy="1625600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FCFF36"/>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>INF1006 - 2</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TH1</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TO - 3215 </a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Système de gestion de bases de données</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>H. Moussa</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2857500</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2870200" cy="1651000"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="ZoneTexte 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6819900" y="5270500"/>
-          <a:ext cx="2870200" cy="1651000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FCFF36"/>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>INF1044 - 2</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>LA1</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TO - 3214 </a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Logiciels de développement</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>R. Talih</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2870200</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2870200" cy="1663700"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="ZoneTexte 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6832600" y="7327900"/>
-          <a:ext cx="2870200" cy="1663700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FCFF36"/>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>INF1023 - 2</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TH1</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TO - 3214 </a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Réseaux locaux et à distance</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>R. Engoulou</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2870200</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2870200" cy="1663700"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="ZoneTexte 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12598400" y="7340600"/>
-          <a:ext cx="2870200" cy="1663700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FCFF36"/>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>INF1023 - 2</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TH1</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TO - 3214 </a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Réseaux locaux et à distance</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>R. Engoulou</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2870200" cy="1651000"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="ZoneTexte 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1092200" y="2781300"/>
-          <a:ext cx="2870200" cy="1651000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FCFF36"/>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>INF1048 - 2</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TH1</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TO - 3215 </a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Programmation et scripts</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>B. Robert</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2870200" cy="1651000"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="ZoneTexte 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12611100" y="5270500"/>
-          <a:ext cx="2870200" cy="1651000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FCFF36"/>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>INF1048 - 2</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TH1</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TO - 3215 </a:t>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO - 3206 </a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
@@ -4337,7 +4502,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22">
+      <c r="A2" s="30">
         <v>8</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -4350,7 +4515,7 @@
       <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
@@ -4361,7 +4526,7 @@
       <c r="G3" s="19"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
@@ -4372,7 +4537,7 @@
       <c r="G4" s="19"/>
     </row>
     <row r="5" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="14" t="s">
         <v>3</v>
       </c>
@@ -4383,7 +4548,7 @@
       <c r="G5" s="19"/>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="22">
+      <c r="A6" s="30">
         <v>9</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -4396,7 +4561,7 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="14" t="s">
         <v>1</v>
       </c>
@@ -4407,7 +4572,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="14" t="s">
         <v>2</v>
       </c>
@@ -4418,7 +4583,7 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="15" t="s">
         <v>3</v>
       </c>
@@ -4429,7 +4594,7 @@
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="22">
+      <c r="A10" s="30">
         <v>10</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -4442,7 +4607,7 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="14" t="s">
         <v>1</v>
       </c>
@@ -4453,7 +4618,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="23"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="14" t="s">
         <v>2</v>
       </c>
@@ -4464,7 +4629,7 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="15" t="s">
         <v>3</v>
       </c>
@@ -4475,7 +4640,7 @@
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="22">
+      <c r="A14" s="30">
         <v>11</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -4488,7 +4653,7 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="23"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="14" t="s">
         <v>1</v>
       </c>
@@ -4499,7 +4664,7 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="23"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="14" t="s">
         <v>2</v>
       </c>
@@ -4510,7 +4675,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="15" t="s">
         <v>3</v>
       </c>
@@ -4521,7 +4686,7 @@
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="22">
+      <c r="A18" s="30">
         <v>12</v>
       </c>
       <c r="B18" s="13" t="s">
@@ -4534,7 +4699,7 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="23"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="14" t="s">
         <v>1</v>
       </c>
@@ -4545,7 +4710,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="23"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="14" t="s">
         <v>2</v>
       </c>
@@ -4556,7 +4721,7 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="15" t="s">
         <v>3</v>
       </c>
@@ -4567,7 +4732,7 @@
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="22">
+      <c r="A22" s="30">
         <v>13</v>
       </c>
       <c r="B22" s="13" t="s">
@@ -4580,7 +4745,7 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="23"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="14" t="s">
         <v>1</v>
       </c>
@@ -4591,7 +4756,7 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="23"/>
+      <c r="A24" s="31"/>
       <c r="B24" s="14" t="s">
         <v>2</v>
       </c>
@@ -4602,7 +4767,7 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
+      <c r="A25" s="32"/>
       <c r="B25" s="15" t="s">
         <v>3</v>
       </c>
@@ -4613,7 +4778,7 @@
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="22">
+      <c r="A26" s="30">
         <v>14</v>
       </c>
       <c r="B26" s="13" t="s">
@@ -4626,7 +4791,7 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="23"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="14" t="s">
         <v>1</v>
       </c>
@@ -4637,7 +4802,7 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="23"/>
+      <c r="A28" s="31"/>
       <c r="B28" s="14" t="s">
         <v>2</v>
       </c>
@@ -4648,7 +4813,7 @@
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
+      <c r="A29" s="32"/>
       <c r="B29" s="15" t="s">
         <v>3</v>
       </c>
@@ -4659,7 +4824,7 @@
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="22">
+      <c r="A30" s="30">
         <v>15</v>
       </c>
       <c r="B30" s="13" t="s">
@@ -4672,7 +4837,7 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="23"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="14" t="s">
         <v>1</v>
       </c>
@@ -4683,7 +4848,7 @@
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="23"/>
+      <c r="A32" s="31"/>
       <c r="B32" s="14" t="s">
         <v>2</v>
       </c>
@@ -4694,7 +4859,7 @@
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
+      <c r="A33" s="32"/>
       <c r="B33" s="15" t="s">
         <v>3</v>
       </c>
@@ -4705,7 +4870,7 @@
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="22">
+      <c r="A34" s="30">
         <v>16</v>
       </c>
       <c r="B34" s="13" t="s">
@@ -4718,7 +4883,7 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="23"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="14" t="s">
         <v>1</v>
       </c>
@@ -4729,7 +4894,7 @@
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="23"/>
+      <c r="A36" s="31"/>
       <c r="B36" s="14" t="s">
         <v>2</v>
       </c>
@@ -4740,7 +4905,7 @@
       <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="24"/>
+      <c r="A37" s="32"/>
       <c r="B37" s="15" t="s">
         <v>3</v>
       </c>
@@ -4751,7 +4916,7 @@
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="22">
+      <c r="A38" s="30">
         <v>17</v>
       </c>
       <c r="B38" s="13" t="s">
@@ -4764,7 +4929,7 @@
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="23"/>
+      <c r="A39" s="31"/>
       <c r="B39" s="14" t="s">
         <v>1</v>
       </c>
@@ -4775,7 +4940,7 @@
       <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="23"/>
+      <c r="A40" s="31"/>
       <c r="B40" s="14" t="s">
         <v>2</v>
       </c>
@@ -4786,7 +4951,7 @@
       <c r="G40" s="19"/>
     </row>
     <row r="41" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="24"/>
+      <c r="A41" s="32"/>
       <c r="B41" s="15" t="s">
         <v>3</v>
       </c>
@@ -4797,7 +4962,7 @@
       <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="22">
+      <c r="A42" s="30">
         <v>18</v>
       </c>
       <c r="B42" s="13" t="s">
@@ -4810,7 +4975,7 @@
       <c r="G42" s="17"/>
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="23"/>
+      <c r="A43" s="31"/>
       <c r="B43" s="14" t="s">
         <v>1</v>
       </c>
@@ -4821,7 +4986,7 @@
       <c r="G43" s="19"/>
     </row>
     <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="23"/>
+      <c r="A44" s="31"/>
       <c r="B44" s="14" t="s">
         <v>2</v>
       </c>
@@ -4832,7 +4997,7 @@
       <c r="G44" s="19"/>
     </row>
     <row r="45" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="24"/>
+      <c r="A45" s="32"/>
       <c r="B45" s="15" t="s">
         <v>3</v>
       </c>
@@ -4843,7 +5008,7 @@
       <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="22">
+      <c r="A46" s="30">
         <v>19</v>
       </c>
       <c r="B46" s="13" t="s">
@@ -4856,7 +5021,7 @@
       <c r="G46" s="17"/>
     </row>
     <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="23"/>
+      <c r="A47" s="31"/>
       <c r="B47" s="14" t="s">
         <v>1</v>
       </c>
@@ -4867,7 +5032,7 @@
       <c r="G47" s="19"/>
     </row>
     <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="23"/>
+      <c r="A48" s="31"/>
       <c r="B48" s="14" t="s">
         <v>2</v>
       </c>
@@ -4878,7 +5043,7 @@
       <c r="G48" s="19"/>
     </row>
     <row r="49" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="24"/>
+      <c r="A49" s="32"/>
       <c r="B49" s="15" t="s">
         <v>3</v>
       </c>
@@ -4889,7 +5054,7 @@
       <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="22">
+      <c r="A50" s="30">
         <v>20</v>
       </c>
       <c r="B50" s="13" t="s">
@@ -4902,7 +5067,7 @@
       <c r="G50" s="17"/>
     </row>
     <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="23"/>
+      <c r="A51" s="31"/>
       <c r="B51" s="14" t="s">
         <v>1</v>
       </c>
@@ -4913,7 +5078,7 @@
       <c r="G51" s="19"/>
     </row>
     <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="23"/>
+      <c r="A52" s="31"/>
       <c r="B52" s="14" t="s">
         <v>2</v>
       </c>
@@ -4924,7 +5089,7 @@
       <c r="G52" s="19"/>
     </row>
     <row r="53" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="24"/>
+      <c r="A53" s="32"/>
       <c r="B53" s="15" t="s">
         <v>3</v>
       </c>
@@ -4936,12 +5101,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -4949,6 +5108,12 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4960,7 +5125,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4993,7 +5160,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="22">
+      <c r="A2" s="30">
         <v>8</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -5006,7 +5173,7 @@
       <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
@@ -5017,7 +5184,7 @@
       <c r="G3" s="19"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
@@ -5028,7 +5195,7 @@
       <c r="G4" s="19"/>
     </row>
     <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="14" t="s">
         <v>3</v>
       </c>
@@ -5039,7 +5206,7 @@
       <c r="G5" s="19"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="22">
+      <c r="A6" s="30">
         <v>9</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -5052,7 +5219,7 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="14" t="s">
         <v>1</v>
       </c>
@@ -5063,7 +5230,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="14" t="s">
         <v>2</v>
       </c>
@@ -5074,7 +5241,7 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="15" t="s">
         <v>3</v>
       </c>
@@ -5085,7 +5252,7 @@
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="22">
+      <c r="A10" s="30">
         <v>10</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -5098,7 +5265,7 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="14" t="s">
         <v>1</v>
       </c>
@@ -5109,7 +5276,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="23"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="14" t="s">
         <v>2</v>
       </c>
@@ -5120,7 +5287,7 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="15" t="s">
         <v>3</v>
       </c>
@@ -5131,7 +5298,7 @@
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="22">
+      <c r="A14" s="30">
         <v>11</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -5144,7 +5311,7 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="23"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="14" t="s">
         <v>1</v>
       </c>
@@ -5155,7 +5322,7 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="23"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="14" t="s">
         <v>2</v>
       </c>
@@ -5166,7 +5333,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="15" t="s">
         <v>3</v>
       </c>
@@ -5177,7 +5344,7 @@
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="22">
+      <c r="A18" s="30">
         <v>12</v>
       </c>
       <c r="B18" s="13" t="s">
@@ -5190,7 +5357,7 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="23"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="14" t="s">
         <v>1</v>
       </c>
@@ -5201,7 +5368,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="23"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="14" t="s">
         <v>2</v>
       </c>
@@ -5212,7 +5379,7 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="15" t="s">
         <v>3</v>
       </c>
@@ -5223,7 +5390,7 @@
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="22">
+      <c r="A22" s="30">
         <v>13</v>
       </c>
       <c r="B22" s="13" t="s">
@@ -5236,7 +5403,7 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="23"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="14" t="s">
         <v>1</v>
       </c>
@@ -5247,7 +5414,7 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="23"/>
+      <c r="A24" s="31"/>
       <c r="B24" s="14" t="s">
         <v>2</v>
       </c>
@@ -5258,7 +5425,7 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
+      <c r="A25" s="32"/>
       <c r="B25" s="15" t="s">
         <v>3</v>
       </c>
@@ -5269,7 +5436,7 @@
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="22">
+      <c r="A26" s="30">
         <v>14</v>
       </c>
       <c r="B26" s="13" t="s">
@@ -5282,7 +5449,7 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="23"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="14" t="s">
         <v>1</v>
       </c>
@@ -5293,7 +5460,7 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="23"/>
+      <c r="A28" s="31"/>
       <c r="B28" s="14" t="s">
         <v>2</v>
       </c>
@@ -5304,7 +5471,7 @@
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
+      <c r="A29" s="32"/>
       <c r="B29" s="15" t="s">
         <v>3</v>
       </c>
@@ -5315,7 +5482,7 @@
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="22">
+      <c r="A30" s="30">
         <v>15</v>
       </c>
       <c r="B30" s="13" t="s">
@@ -5328,7 +5495,7 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="23"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="14" t="s">
         <v>1</v>
       </c>
@@ -5339,7 +5506,7 @@
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="23"/>
+      <c r="A32" s="31"/>
       <c r="B32" s="14" t="s">
         <v>2</v>
       </c>
@@ -5350,7 +5517,7 @@
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
+      <c r="A33" s="32"/>
       <c r="B33" s="15" t="s">
         <v>3</v>
       </c>
@@ -5361,7 +5528,7 @@
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="22">
+      <c r="A34" s="30">
         <v>16</v>
       </c>
       <c r="B34" s="13" t="s">
@@ -5374,7 +5541,7 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="23"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="14" t="s">
         <v>1</v>
       </c>
@@ -5385,7 +5552,7 @@
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="23"/>
+      <c r="A36" s="31"/>
       <c r="B36" s="14" t="s">
         <v>2</v>
       </c>
@@ -5396,7 +5563,7 @@
       <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="24"/>
+      <c r="A37" s="32"/>
       <c r="B37" s="15" t="s">
         <v>3</v>
       </c>
@@ -5407,7 +5574,7 @@
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="22">
+      <c r="A38" s="30">
         <v>17</v>
       </c>
       <c r="B38" s="13" t="s">
@@ -5420,7 +5587,7 @@
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="23"/>
+      <c r="A39" s="31"/>
       <c r="B39" s="14" t="s">
         <v>1</v>
       </c>
@@ -5431,7 +5598,7 @@
       <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="23"/>
+      <c r="A40" s="31"/>
       <c r="B40" s="14" t="s">
         <v>2</v>
       </c>
@@ -5442,7 +5609,7 @@
       <c r="G40" s="19"/>
     </row>
     <row r="41" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="24"/>
+      <c r="A41" s="32"/>
       <c r="B41" s="15" t="s">
         <v>3</v>
       </c>
@@ -5453,7 +5620,7 @@
       <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="22">
+      <c r="A42" s="30">
         <v>18</v>
       </c>
       <c r="B42" s="13" t="s">
@@ -5466,7 +5633,7 @@
       <c r="G42" s="17"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="23"/>
+      <c r="A43" s="31"/>
       <c r="B43" s="14" t="s">
         <v>1</v>
       </c>
@@ -5477,7 +5644,7 @@
       <c r="G43" s="19"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="23"/>
+      <c r="A44" s="31"/>
       <c r="B44" s="14" t="s">
         <v>2</v>
       </c>
@@ -5488,7 +5655,7 @@
       <c r="G44" s="19"/>
     </row>
     <row r="45" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="24"/>
+      <c r="A45" s="32"/>
       <c r="B45" s="15" t="s">
         <v>3</v>
       </c>
@@ -5499,7 +5666,7 @@
       <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="22">
+      <c r="A46" s="30">
         <v>19</v>
       </c>
       <c r="B46" s="13" t="s">
@@ -5512,7 +5679,7 @@
       <c r="G46" s="17"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="23"/>
+      <c r="A47" s="31"/>
       <c r="B47" s="14" t="s">
         <v>1</v>
       </c>
@@ -5523,7 +5690,7 @@
       <c r="G47" s="19"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="23"/>
+      <c r="A48" s="31"/>
       <c r="B48" s="14" t="s">
         <v>2</v>
       </c>
@@ -5534,7 +5701,7 @@
       <c r="G48" s="19"/>
     </row>
     <row r="49" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="24"/>
+      <c r="A49" s="32"/>
       <c r="B49" s="15" t="s">
         <v>3</v>
       </c>
@@ -5545,7 +5712,7 @@
       <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="22">
+      <c r="A50" s="30">
         <v>20</v>
       </c>
       <c r="B50" s="13" t="s">
@@ -5558,7 +5725,7 @@
       <c r="G50" s="17"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="23"/>
+      <c r="A51" s="31"/>
       <c r="B51" s="14" t="s">
         <v>1</v>
       </c>
@@ -5569,7 +5736,7 @@
       <c r="G51" s="19"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="23"/>
+      <c r="A52" s="31"/>
       <c r="B52" s="14" t="s">
         <v>2</v>
       </c>
@@ -5580,7 +5747,7 @@
       <c r="G52" s="19"/>
     </row>
     <row r="53" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="24"/>
+      <c r="A53" s="32"/>
       <c r="B53" s="15" t="s">
         <v>3</v>
       </c>
@@ -5592,12 +5759,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -5605,6 +5766,12 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5616,8 +5783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92056296-64B8-C847-8C9F-FFFE43E57545}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5628,219 +5795,233 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="22" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="25" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="28" t="s">
+    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="26"/>
+    </row>
+    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="33" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="29"/>
-    </row>
-    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="26" t="s">
+      <c r="D5" s="25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="23" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="29"/>
-    </row>
-    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="29"/>
-    </row>
-    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="26" t="s">
+      <c r="D18" s="34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="29"/>
-    </row>
-    <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="29"/>
-    </row>
-    <row r="11" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="33" t="s">
+      <c r="D19" s="25" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="29"/>
-    </row>
-    <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="30"/>
-    </row>
-    <row r="17" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="30"/>
-    </row>
-    <row r="19" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/GINX_TimeTable18A.xlsx
+++ b/GINX_TimeTable18A.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/300098957/Developer/CollegeBoreal/18A/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A681C4-51DE-CD4F-A754-0160E83156EB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1457162-361C-EC44-B393-557952126A1C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="840" windowWidth="31340" windowHeight="26340" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12520" yWindow="460" windowWidth="31340" windowHeight="26340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GINF" sheetId="1" r:id="rId1"/>
     <sheet name="GINQ" sheetId="2" r:id="rId2"/>
     <sheet name="Professeurs" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140000"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GINF!$A$1:$G$53</definedName>
+  </definedNames>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -518,6 +521,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -527,8 +532,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
@@ -578,12 +581,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="1549400"/>
+    <xdr:ext cx="2870200" cy="1485900"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="ZoneTexte 1">
@@ -597,8 +600,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1092200" y="4991100"/>
-          <a:ext cx="2870200" cy="1549400"/>
+          <a:off x="3962400" y="8877300"/>
+          <a:ext cx="2870200" cy="1485900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -882,12 +885,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2870200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="1727200"/>
+    <xdr:ext cx="2870200" cy="1562100"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="ZoneTexte 3">
@@ -901,8 +904,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3962400" y="2476500"/>
-          <a:ext cx="2870200" cy="1727200"/>
+          <a:off x="3949700" y="7302500"/>
+          <a:ext cx="2870200" cy="1562100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1003,174 +1006,6 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="fr-FR" sz="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2870200" cy="1549400"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="ZoneTexte 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9740900" y="2857500"/>
-          <a:ext cx="2870200" cy="1549400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFD7D6"/>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>INF1035 - 2</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>LA1</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TO - 3214 </a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Logiciels d'applications</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>L. Kaniki</a:t>
-          </a:r>
           <a:endParaRPr lang="fr-FR" sz="1200"/>
         </a:p>
       </xdr:txBody>
@@ -1347,12 +1182,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="2057400"/>
+    <xdr:ext cx="2870200" cy="2044700"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="ZoneTexte 7">
@@ -1366,8 +1201,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3987800" y="7683500"/>
-          <a:ext cx="2870200" cy="2057400"/>
+          <a:off x="6845300" y="7696200"/>
+          <a:ext cx="2870200" cy="2044700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1515,10 +1350,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="2324100"/>
     <xdr:sp macro="" textlink="">
@@ -1534,7 +1369,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9740900" y="6515100"/>
+          <a:off x="12611100" y="4584700"/>
           <a:ext cx="2870200" cy="2324100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1683,12 +1518,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="1549400"/>
+    <xdr:ext cx="2870200" cy="3060700"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="12" name="ZoneTexte 11">
@@ -1702,8 +1537,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1092200" y="1892300"/>
-          <a:ext cx="2870200" cy="1549400"/>
+          <a:off x="9728200" y="5372100"/>
+          <a:ext cx="2870200" cy="3060700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1851,9 +1686,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1574800"/>
@@ -1870,7 +1705,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3987800" y="4965700"/>
+          <a:off x="9740900" y="8839200"/>
           <a:ext cx="2870200" cy="1574800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2019,18 +1854,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="1727200"/>
+    <xdr:ext cx="2870200" cy="1574800"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="ZoneTexte 13">
+        <xdr:cNvPr id="15" name="ZoneTexte 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9325CA27-6955-C446-B643-5D854CADA289}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAA02870-D4E5-D744-A2C4-1AE0DAA09AD4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2038,8 +1873,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6858000" y="1879600"/>
-          <a:ext cx="2870200" cy="1727200"/>
+          <a:off x="12636500" y="7289800"/>
+          <a:ext cx="2870200" cy="1574800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2135,17 +1970,11 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
+            <a:rPr lang="fr-FR" sz="1200"/>
             <a:t>S. Kounestron</a:t>
           </a:r>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="fr-FR" sz="1200"/>
         </a:p>
       </xdr:txBody>
@@ -2160,9 +1989,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>16934</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>6352</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>201083</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1651000"/>
     <xdr:sp macro="" textlink="">
@@ -2178,7 +2007,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9732434" y="1936750"/>
+          <a:off x="9721852" y="7641166"/>
           <a:ext cx="2870200" cy="1651000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2322,9 +2151,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>10583</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>188383</xdr:rowOff>
+      <xdr:colOff>10582</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>8467</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1663700"/>
     <xdr:sp macro="" textlink="">
@@ -2340,14 +2169,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3968750" y="9660466"/>
+          <a:off x="3968749" y="5617634"/>
           <a:ext cx="2870200" cy="1663700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="C00000"/>
+          <a:srgbClr val="FFFF00"/>
         </a:solidFill>
         <a:effectLst>
           <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
@@ -2479,10 +2308,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>12701</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>182033</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>23285</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>12698</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1651000"/>
     <xdr:sp macro="" textlink="">
@@ -2498,7 +2327,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3970868" y="5992283"/>
+          <a:off x="9738785" y="5621865"/>
           <a:ext cx="2870200" cy="1651000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2648,11 +2477,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>10584</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>14816</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>14818</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="2514600"/>
+    <xdr:ext cx="2870200" cy="2408766"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="12" name="ZoneTexte 11">
@@ -2666,8 +2495,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6847417" y="1951566"/>
-          <a:ext cx="2870200" cy="2514600"/>
+          <a:off x="6836833" y="2364318"/>
+          <a:ext cx="2870200" cy="2408766"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2817,8 +2646,8 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>21167</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>10583</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1651000"/>
     <xdr:sp macro="" textlink="">
@@ -2834,7 +2663,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1079500" y="7662334"/>
+          <a:off x="1079500" y="5619750"/>
           <a:ext cx="2870200" cy="1651000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2983,12 +2812,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>10583</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>10583</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="2514600"/>
+    <xdr:ext cx="2870200" cy="2423584"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="15" name="ZoneTexte 14">
@@ -3002,8 +2831,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6847416" y="6836833"/>
-          <a:ext cx="2870200" cy="2514600"/>
+          <a:off x="3968750" y="2360083"/>
+          <a:ext cx="2870200" cy="2423584"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3141,7 +2970,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>R. </a:t>
+            <a:t>R. Nthoubanza</a:t>
           </a:r>
           <a:endParaRPr lang="fr-FR" sz="1200"/>
         </a:p>
@@ -3151,12 +2980,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2117</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>23284</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>12696</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="1625600"/>
+    <xdr:ext cx="2870200" cy="1670053"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="16" name="ZoneTexte 15">
@@ -3170,14 +2999,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9717617" y="9675283"/>
-          <a:ext cx="2870200" cy="1625600"/>
+          <a:off x="6860117" y="5621863"/>
+          <a:ext cx="2870200" cy="1670053"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="C00000"/>
+          <a:srgbClr val="FFFF00"/>
         </a:solidFill>
         <a:effectLst>
           <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
@@ -3311,9 +3140,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>10583</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>12701</xdr:rowOff>
+      <xdr:colOff>2868083</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>12702</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1651000"/>
     <xdr:sp macro="" textlink="">
@@ -3329,7 +3158,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1090083" y="4394201"/>
+          <a:off x="3947583" y="7653869"/>
           <a:ext cx="2870200" cy="1651000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3472,9 +3301,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>33867</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1663700"/>
@@ -3491,7 +3320,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12628034" y="1936750"/>
+          <a:off x="6849533" y="7641167"/>
           <a:ext cx="2870200" cy="1663700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3640,9 +3469,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>351366</xdr:colOff>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>2116</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1663700"/>
@@ -3659,7 +3488,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9728200" y="5198533"/>
+          <a:off x="1071033" y="7643283"/>
           <a:ext cx="2870200" cy="1663700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3808,10 +3637,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>12699</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>10584</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>351365</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>201084</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1651000"/>
     <xdr:sp macro="" textlink="">
@@ -3827,7 +3656,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3970866" y="3577167"/>
+          <a:off x="1071032" y="3153834"/>
           <a:ext cx="2870200" cy="1651000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3976,10 +3805,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>10583</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>182034</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171452</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1651000"/>
     <xdr:sp macro="" textlink="">
@@ -3995,7 +3824,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12604750" y="5992284"/>
+          <a:off x="9715500" y="3124202"/>
           <a:ext cx="2870200" cy="1651000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4467,666 +4296,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" customWidth="1"/>
-    <col min="3" max="7" width="37.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30">
-        <v>8</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19"/>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19"/>
-    </row>
-    <row r="5" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19"/>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30">
-        <v>9</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
-      <c r="B7" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="31"/>
-      <c r="B8" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="30">
-        <v>10</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="31"/>
-      <c r="B11" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="31"/>
-      <c r="B12" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
-      <c r="B13" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="30">
-        <v>11</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="31"/>
-      <c r="B15" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="31"/>
-      <c r="B16" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="30">
-        <v>12</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="31"/>
-      <c r="B19" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="31"/>
-      <c r="B20" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="30">
-        <v>13</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="31"/>
-      <c r="B23" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="31"/>
-      <c r="B24" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="30">
-        <v>14</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="31"/>
-      <c r="B27" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="31"/>
-      <c r="B28" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
-      <c r="B29" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="30">
-        <v>15</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="31"/>
-      <c r="B31" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="31"/>
-      <c r="B32" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
-      <c r="B33" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="30">
-        <v>16</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="31"/>
-      <c r="B35" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="31"/>
-      <c r="B36" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="32"/>
-      <c r="B37" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="30">
-        <v>17</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="31"/>
-      <c r="B39" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="31"/>
-      <c r="B40" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="19"/>
-    </row>
-    <row r="41" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="32"/>
-      <c r="B41" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="21"/>
-    </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="30">
-        <v>18</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="17"/>
-    </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="31"/>
-      <c r="B43" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="19"/>
-    </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="31"/>
-      <c r="B44" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="19"/>
-    </row>
-    <row r="45" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="32"/>
-      <c r="B45" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="21"/>
-    </row>
-    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="30">
-        <v>19</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="17"/>
-    </row>
-    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="31"/>
-      <c r="B47" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="19"/>
-    </row>
-    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="31"/>
-      <c r="B48" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="19"/>
-    </row>
-    <row r="49" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="32"/>
-      <c r="B49" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="21"/>
-    </row>
-    <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="30">
-        <v>20</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="17"/>
-    </row>
-    <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="31"/>
-      <c r="B51" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="19"/>
-    </row>
-    <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="31"/>
-      <c r="B52" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="19"/>
-    </row>
-    <row r="53" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="32"/>
-      <c r="B53" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="21"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G53"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5143,24 +4319,24 @@
       <c r="B1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="30">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="32">
         <v>8</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -5172,8 +4348,8 @@
       <c r="F2" s="16"/>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="33"/>
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
@@ -5183,8 +4359,8 @@
       <c r="F3" s="18"/>
       <c r="G3" s="19"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="33"/>
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
@@ -5194,8 +4370,8 @@
       <c r="F4" s="18"/>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
+    <row r="5" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="33"/>
       <c r="B5" s="14" t="s">
         <v>3</v>
       </c>
@@ -5205,8 +4381,8 @@
       <c r="F5" s="18"/>
       <c r="G5" s="19"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="30">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="32">
         <v>9</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -5218,8 +4394,8 @@
       <c r="F6" s="6"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="33"/>
       <c r="B7" s="14" t="s">
         <v>1</v>
       </c>
@@ -5229,8 +4405,8 @@
       <c r="F7" s="4"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="31"/>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="33"/>
       <c r="B8" s="14" t="s">
         <v>2</v>
       </c>
@@ -5240,8 +4416,8 @@
       <c r="F8" s="4"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
+    <row r="9" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="34"/>
       <c r="B9" s="15" t="s">
         <v>3</v>
       </c>
@@ -5251,8 +4427,8 @@
       <c r="F9" s="5"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="30">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="32">
         <v>10</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -5264,8 +4440,8 @@
       <c r="F10" s="6"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="31"/>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="33"/>
       <c r="B11" s="14" t="s">
         <v>1</v>
       </c>
@@ -5275,8 +4451,8 @@
       <c r="F11" s="4"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="31"/>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="33"/>
       <c r="B12" s="14" t="s">
         <v>2</v>
       </c>
@@ -5286,8 +4462,8 @@
       <c r="F12" s="4"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
+    <row r="13" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="34"/>
       <c r="B13" s="15" t="s">
         <v>3</v>
       </c>
@@ -5297,8 +4473,8 @@
       <c r="F13" s="5"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="30">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="32">
         <v>11</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -5310,8 +4486,8 @@
       <c r="F14" s="6"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="31"/>
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="33"/>
       <c r="B15" s="14" t="s">
         <v>1</v>
       </c>
@@ -5321,8 +4497,8 @@
       <c r="F15" s="4"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="31"/>
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="33"/>
       <c r="B16" s="14" t="s">
         <v>2</v>
       </c>
@@ -5332,8 +4508,8 @@
       <c r="F16" s="4"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
+    <row r="17" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="34"/>
       <c r="B17" s="15" t="s">
         <v>3</v>
       </c>
@@ -5343,8 +4519,8 @@
       <c r="F17" s="5"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="30">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="32">
         <v>12</v>
       </c>
       <c r="B18" s="13" t="s">
@@ -5356,8 +4532,8 @@
       <c r="F18" s="6"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="31"/>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="33"/>
       <c r="B19" s="14" t="s">
         <v>1</v>
       </c>
@@ -5367,8 +4543,8 @@
       <c r="F19" s="4"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="31"/>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="33"/>
       <c r="B20" s="14" t="s">
         <v>2</v>
       </c>
@@ -5378,8 +4554,8 @@
       <c r="F20" s="4"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
+    <row r="21" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="34"/>
       <c r="B21" s="15" t="s">
         <v>3</v>
       </c>
@@ -5389,8 +4565,8 @@
       <c r="F21" s="5"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="30">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="32">
         <v>13</v>
       </c>
       <c r="B22" s="13" t="s">
@@ -5402,8 +4578,8 @@
       <c r="F22" s="6"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="31"/>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="33"/>
       <c r="B23" s="14" t="s">
         <v>1</v>
       </c>
@@ -5413,8 +4589,8 @@
       <c r="F23" s="4"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="31"/>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="33"/>
       <c r="B24" s="14" t="s">
         <v>2</v>
       </c>
@@ -5424,8 +4600,8 @@
       <c r="F24" s="4"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
+    <row r="25" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="34"/>
       <c r="B25" s="15" t="s">
         <v>3</v>
       </c>
@@ -5435,8 +4611,8 @@
       <c r="F25" s="5"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="30">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="32">
         <v>14</v>
       </c>
       <c r="B26" s="13" t="s">
@@ -5448,8 +4624,8 @@
       <c r="F26" s="6"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="31"/>
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="33"/>
       <c r="B27" s="14" t="s">
         <v>1</v>
       </c>
@@ -5459,8 +4635,8 @@
       <c r="F27" s="4"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="31"/>
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="33"/>
       <c r="B28" s="14" t="s">
         <v>2</v>
       </c>
@@ -5470,8 +4646,8 @@
       <c r="F28" s="4"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
+    <row r="29" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="34"/>
       <c r="B29" s="15" t="s">
         <v>3</v>
       </c>
@@ -5481,8 +4657,8 @@
       <c r="F29" s="5"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="30">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="32">
         <v>15</v>
       </c>
       <c r="B30" s="13" t="s">
@@ -5494,8 +4670,8 @@
       <c r="F30" s="6"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="31"/>
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="33"/>
       <c r="B31" s="14" t="s">
         <v>1</v>
       </c>
@@ -5505,8 +4681,8 @@
       <c r="F31" s="4"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="31"/>
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="33"/>
       <c r="B32" s="14" t="s">
         <v>2</v>
       </c>
@@ -5516,8 +4692,8 @@
       <c r="F32" s="4"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
+    <row r="33" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="34"/>
       <c r="B33" s="15" t="s">
         <v>3</v>
       </c>
@@ -5527,8 +4703,8 @@
       <c r="F33" s="5"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="30">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="32">
         <v>16</v>
       </c>
       <c r="B34" s="13" t="s">
@@ -5540,8 +4716,8 @@
       <c r="F34" s="6"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="31"/>
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="33"/>
       <c r="B35" s="14" t="s">
         <v>1</v>
       </c>
@@ -5551,8 +4727,8 @@
       <c r="F35" s="4"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="31"/>
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="33"/>
       <c r="B36" s="14" t="s">
         <v>2</v>
       </c>
@@ -5562,8 +4738,8 @@
       <c r="F36" s="4"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="32"/>
+    <row r="37" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="34"/>
       <c r="B37" s="15" t="s">
         <v>3</v>
       </c>
@@ -5573,8 +4749,8 @@
       <c r="F37" s="5"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="30">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="32">
         <v>17</v>
       </c>
       <c r="B38" s="13" t="s">
@@ -5586,8 +4762,8 @@
       <c r="F38" s="6"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="31"/>
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="33"/>
       <c r="B39" s="14" t="s">
         <v>1</v>
       </c>
@@ -5597,8 +4773,8 @@
       <c r="F39" s="4"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="31"/>
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="33"/>
       <c r="B40" s="14" t="s">
         <v>2</v>
       </c>
@@ -5608,8 +4784,8 @@
       <c r="F40" s="18"/>
       <c r="G40" s="19"/>
     </row>
-    <row r="41" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="32"/>
+    <row r="41" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="34"/>
       <c r="B41" s="15" t="s">
         <v>3</v>
       </c>
@@ -5619,8 +4795,8 @@
       <c r="F41" s="20"/>
       <c r="G41" s="21"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="30">
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="32">
         <v>18</v>
       </c>
       <c r="B42" s="13" t="s">
@@ -5632,8 +4808,8 @@
       <c r="F42" s="16"/>
       <c r="G42" s="17"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="31"/>
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="33"/>
       <c r="B43" s="14" t="s">
         <v>1</v>
       </c>
@@ -5643,8 +4819,8 @@
       <c r="F43" s="18"/>
       <c r="G43" s="19"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="31"/>
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="33"/>
       <c r="B44" s="14" t="s">
         <v>2</v>
       </c>
@@ -5654,8 +4830,8 @@
       <c r="F44" s="18"/>
       <c r="G44" s="19"/>
     </row>
-    <row r="45" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="32"/>
+    <row r="45" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="34"/>
       <c r="B45" s="15" t="s">
         <v>3</v>
       </c>
@@ -5665,8 +4841,8 @@
       <c r="F45" s="20"/>
       <c r="G45" s="21"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="30">
+    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="32">
         <v>19</v>
       </c>
       <c r="B46" s="13" t="s">
@@ -5678,8 +4854,8 @@
       <c r="F46" s="16"/>
       <c r="G46" s="17"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="31"/>
+    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="33"/>
       <c r="B47" s="14" t="s">
         <v>1</v>
       </c>
@@ -5689,8 +4865,8 @@
       <c r="F47" s="18"/>
       <c r="G47" s="19"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="31"/>
+    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="33"/>
       <c r="B48" s="14" t="s">
         <v>2</v>
       </c>
@@ -5700,8 +4876,8 @@
       <c r="F48" s="18"/>
       <c r="G48" s="19"/>
     </row>
-    <row r="49" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="32"/>
+    <row r="49" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="34"/>
       <c r="B49" s="15" t="s">
         <v>3</v>
       </c>
@@ -5711,8 +4887,8 @@
       <c r="F49" s="20"/>
       <c r="G49" s="21"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="30">
+    <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="32">
         <v>20</v>
       </c>
       <c r="B50" s="13" t="s">
@@ -5724,8 +4900,8 @@
       <c r="F50" s="16"/>
       <c r="G50" s="17"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="31"/>
+    <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="33"/>
       <c r="B51" s="14" t="s">
         <v>1</v>
       </c>
@@ -5735,8 +4911,8 @@
       <c r="F51" s="18"/>
       <c r="G51" s="19"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="31"/>
+    <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="33"/>
       <c r="B52" s="14" t="s">
         <v>2</v>
       </c>
@@ -5746,8 +4922,8 @@
       <c r="F52" s="18"/>
       <c r="G52" s="19"/>
     </row>
-    <row r="53" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="32"/>
+    <row r="53" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="34"/>
       <c r="B53" s="15" t="s">
         <v>3</v>
       </c>
@@ -5759,6 +4935,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -5766,15 +4948,670 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="41" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G53"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection sqref="A1:G53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" customWidth="1"/>
+    <col min="3" max="7" width="37.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="32">
+        <v>8</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="33"/>
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="33"/>
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="33"/>
+      <c r="B5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="32">
+        <v>9</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="33"/>
+      <c r="B7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="33"/>
+      <c r="B8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="34"/>
+      <c r="B9" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="32">
+        <v>10</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="33"/>
+      <c r="B11" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="33"/>
+      <c r="B12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="34"/>
+      <c r="B13" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="32">
+        <v>11</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="33"/>
+      <c r="B15" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="33"/>
+      <c r="B16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="34"/>
+      <c r="B17" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="32">
+        <v>12</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="33"/>
+      <c r="B19" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="33"/>
+      <c r="B20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="34"/>
+      <c r="B21" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="32">
+        <v>13</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="33"/>
+      <c r="B23" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="33"/>
+      <c r="B24" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="34"/>
+      <c r="B25" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="32">
+        <v>14</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="33"/>
+      <c r="B27" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="33"/>
+      <c r="B28" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="34"/>
+      <c r="B29" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="32">
+        <v>15</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="33"/>
+      <c r="B31" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="33"/>
+      <c r="B32" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="34"/>
+      <c r="B33" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="32">
+        <v>16</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="33"/>
+      <c r="B35" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="33"/>
+      <c r="B36" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="34"/>
+      <c r="B37" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="32">
+        <v>17</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="33"/>
+      <c r="B39" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="33"/>
+      <c r="B40" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="19"/>
+    </row>
+    <row r="41" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="34"/>
+      <c r="B41" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="21"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="32">
+        <v>18</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="17"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="33"/>
+      <c r="B43" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="19"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="33"/>
+      <c r="B44" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="19"/>
+    </row>
+    <row r="45" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="34"/>
+      <c r="B45" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="21"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="32">
+        <v>19</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="17"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="33"/>
+      <c r="B47" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="19"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="33"/>
+      <c r="B48" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="19"/>
+    </row>
+    <row r="49" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="34"/>
+      <c r="B49" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="21"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="32">
+        <v>20</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="17"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="33"/>
+      <c r="B51" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="19"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="33"/>
+      <c r="B52" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="19"/>
+    </row>
+    <row r="53" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="34"/>
+      <c r="B53" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A46:A49"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup scale="41" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -5844,7 +5681,7 @@
       <c r="B5" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="30" t="s">
         <v>49</v>
       </c>
       <c r="D5" s="25" t="s">
@@ -5858,10 +5695,10 @@
       <c r="B6" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="31" t="s">
         <v>48</v>
       </c>
     </row>
@@ -5886,10 +5723,10 @@
       <c r="B8" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="31" t="s">
         <v>48</v>
       </c>
     </row>
@@ -5903,7 +5740,7 @@
       <c r="C9" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="31" t="s">
         <v>48</v>
       </c>
     </row>
@@ -5947,10 +5784,10 @@
       <c r="B14" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="31" t="s">
         <v>48</v>
       </c>
     </row>
@@ -5964,7 +5801,7 @@
       <c r="C15" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="31" t="s">
         <v>48</v>
       </c>
     </row>
@@ -5975,10 +5812,10 @@
       <c r="B16" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="31" t="s">
         <v>48</v>
       </c>
     </row>
@@ -6003,10 +5840,10 @@
       <c r="B18" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="31" t="s">
         <v>48</v>
       </c>
     </row>

--- a/GINX_TimeTable18A.xlsx
+++ b/GINX_TimeTable18A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/300098957/Developer/CollegeBoreal/18A/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1457162-361C-EC44-B393-557952126A1C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB1793C-E09A-D14D-A4D2-A91A4559B6F5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12520" yWindow="460" windowWidth="31340" windowHeight="26340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18200" yWindow="460" windowWidth="31340" windowHeight="26340" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GINF" sheetId="1" r:id="rId1"/>
@@ -693,7 +693,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TO - 3214 </a:t>
+            <a:t>TO - 3215</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
@@ -981,7 +981,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TO - 3206 </a:t>
+            <a:t>TO - 3215 </a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1200"/>
@@ -1352,8 +1352,8 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="2324100"/>
     <xdr:sp macro="" textlink="">
@@ -1369,7 +1369,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12611100" y="4584700"/>
+          <a:off x="12611100" y="4597400"/>
           <a:ext cx="2870200" cy="2324100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1630,7 +1630,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TO - 3214 </a:t>
+            <a:t>TO - 3215 </a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100">
@@ -1798,7 +1798,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TO - 3214 </a:t>
+            <a:t>TO - 3215</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
@@ -1950,7 +1950,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TO - 3206 </a:t>
+            <a:t>TO - 3215 </a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1200"/>
@@ -2104,7 +2104,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TO - 3215 </a:t>
+            <a:t>TO - 3207 </a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100">
@@ -2262,7 +2262,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TO - 3215 </a:t>
+            <a:t>TO - 3240 </a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
@@ -2420,7 +2420,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TO - 3202 </a:t>
+            <a:t>TO - 3239 </a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100">
@@ -2477,9 +2477,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>10583</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>14818</xdr:rowOff>
+      <xdr:rowOff>46567</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="2408766"/>
     <xdr:sp macro="" textlink="">
@@ -2495,7 +2495,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6836833" y="2364318"/>
+          <a:off x="6847416" y="2396067"/>
           <a:ext cx="2870200" cy="2408766"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2588,7 +2588,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TO - 3240 </a:t>
+            <a:t>TO - 3215 </a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100">
@@ -2756,7 +2756,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TO - 3202 </a:t>
+            <a:t>TO - 3217 </a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100">
@@ -2813,9 +2813,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>10583</xdr:colOff>
+      <xdr:colOff>21166</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>10583</xdr:rowOff>
+      <xdr:rowOff>31749</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="2423584"/>
     <xdr:sp macro="" textlink="">
@@ -2831,7 +2831,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3968750" y="2360083"/>
+          <a:off x="3979333" y="2381249"/>
           <a:ext cx="2870200" cy="2423584"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2924,7 +2924,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TO - 3241 </a:t>
+            <a:t>TO - 3215 </a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
@@ -3092,7 +3092,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TO - 3215 </a:t>
+            <a:t>TO - 3231 </a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
@@ -3255,7 +3255,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TO - 3214 </a:t>
+            <a:t>TO - 3241 </a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100">
@@ -3413,7 +3413,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TO - 3158 </a:t>
+            <a:t>TO - 3242 </a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
@@ -3581,7 +3581,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TO - 3239 </a:t>
+            <a:t>TO - 3242 </a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
@@ -3749,7 +3749,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TO - 3240 </a:t>
+            <a:t>TO - 3215 </a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
@@ -3917,7 +3917,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TO - 3206 </a:t>
+            <a:t>TO - 3215 </a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
@@ -4301,7 +4301,7 @@
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:G53"/>
     </sheetView>
   </sheetViews>
@@ -4935,12 +4935,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -4948,6 +4942,12 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="41" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4962,9 +4962,7 @@
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:G53"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5596,12 +5594,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -5609,6 +5601,12 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="41" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/GINX_TimeTable18A.xlsx
+++ b/GINX_TimeTable18A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10909"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/300098957/Developer/CollegeBoreal/18A/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valiha/Developer/CollegeBoreal/18A/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB1793C-E09A-D14D-A4D2-A91A4559B6F5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC887E3-2F27-044D-87F5-106058A5E341}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18200" yWindow="460" windowWidth="31340" windowHeight="26340" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GINF" sheetId="1" r:id="rId1"/>
@@ -534,23 +534,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="18">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="17" builtinId="8"/>
-    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2308,10 +2308,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>23285</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>12698</xdr:rowOff>
+      <xdr:rowOff>23281</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1651000"/>
     <xdr:sp macro="" textlink="">
@@ -2327,7 +2327,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9738785" y="5621865"/>
+          <a:off x="6860118" y="5632448"/>
           <a:ext cx="2870200" cy="1651000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2420,7 +2420,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TO - 3239 </a:t>
+            <a:t>TO - 3231 </a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100">
@@ -2980,10 +2980,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>23284</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>12696</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>33868</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>203197</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1670053"/>
     <xdr:sp macro="" textlink="">
@@ -2999,7 +2999,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6860117" y="5621863"/>
+          <a:off x="9749368" y="5600697"/>
           <a:ext cx="2870200" cy="1670053"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3092,7 +3092,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TO - 3231 </a:t>
+            <a:t>TO - 3239 </a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
@@ -4935,6 +4935,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -4942,12 +4948,6 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="41" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4962,7 +4962,9 @@
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5594,6 +5596,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -5601,12 +5609,6 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="41" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
